--- a/Data/Excel/三调规程/土地利用现状三大类面积汇总表.xlsx
+++ b/Data/Excel/三调规程/土地利用现状三大类面积汇总表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="169">
   <si>
     <t>行政区域</t>
   </si>
@@ -696,22 +696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>草地（0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他草地
 （0404）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -854,10 +838,6 @@
   </si>
   <si>
     <t>未利用地湿地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未利用地草地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1125,32 +1105,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1167,11 +1126,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1453,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CD7"/>
+  <dimension ref="A1:CC7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:CD3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1465,118 +1445,119 @@
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="23" width="10.75" customWidth="1"/>
     <col min="24" max="24" width="10.5" customWidth="1"/>
-    <col min="25" max="33" width="10.75" customWidth="1"/>
-    <col min="34" max="34" width="14" customWidth="1"/>
-    <col min="35" max="37" width="10.75" customWidth="1"/>
-    <col min="38" max="39" width="12" customWidth="1"/>
-    <col min="40" max="40" width="15.75" customWidth="1"/>
-    <col min="41" max="41" width="12" customWidth="1"/>
-    <col min="42" max="47" width="10.75" customWidth="1"/>
-    <col min="48" max="48" width="13.5" customWidth="1"/>
-    <col min="49" max="49" width="20.125" customWidth="1"/>
-    <col min="50" max="52" width="13.5" customWidth="1"/>
-    <col min="53" max="53" width="10.75" customWidth="1"/>
-    <col min="54" max="54" width="11.25" customWidth="1"/>
-    <col min="55" max="57" width="10.75" customWidth="1"/>
-    <col min="58" max="58" width="12.625" customWidth="1"/>
-    <col min="59" max="59" width="15.375" customWidth="1"/>
-    <col min="60" max="62" width="10.75" customWidth="1"/>
-    <col min="63" max="63" width="14.375" customWidth="1"/>
-    <col min="64" max="64" width="15.375" customWidth="1"/>
-    <col min="65" max="65" width="11.125" customWidth="1"/>
-    <col min="66" max="67" width="12.5" customWidth="1"/>
-    <col min="68" max="72" width="10.75" customWidth="1"/>
-    <col min="73" max="80" width="12.75" customWidth="1"/>
-    <col min="81" max="81" width="10.75" customWidth="1"/>
+    <col min="25" max="25" width="10.75" customWidth="1"/>
+    <col min="26" max="26" width="12.75" customWidth="1"/>
+    <col min="27" max="34" width="10.75" customWidth="1"/>
+    <col min="35" max="35" width="14" customWidth="1"/>
+    <col min="36" max="38" width="10.75" customWidth="1"/>
+    <col min="39" max="40" width="12" customWidth="1"/>
+    <col min="41" max="41" width="15.75" customWidth="1"/>
+    <col min="42" max="42" width="12" customWidth="1"/>
+    <col min="43" max="48" width="10.75" customWidth="1"/>
+    <col min="49" max="49" width="13.5" customWidth="1"/>
+    <col min="50" max="50" width="20.125" customWidth="1"/>
+    <col min="51" max="53" width="13.5" customWidth="1"/>
+    <col min="54" max="54" width="10.75" customWidth="1"/>
+    <col min="55" max="55" width="11.25" customWidth="1"/>
+    <col min="56" max="58" width="10.75" customWidth="1"/>
+    <col min="59" max="59" width="12.625" customWidth="1"/>
+    <col min="60" max="60" width="15.375" customWidth="1"/>
+    <col min="61" max="63" width="10.75" customWidth="1"/>
+    <col min="64" max="64" width="14.375" customWidth="1"/>
+    <col min="65" max="65" width="15.375" customWidth="1"/>
+    <col min="66" max="66" width="11.125" customWidth="1"/>
+    <col min="67" max="68" width="12.5" customWidth="1"/>
+    <col min="69" max="72" width="10.75" customWidth="1"/>
+    <col min="73" max="79" width="12.75" customWidth="1"/>
+    <col min="80" max="80" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="9"/>
-      <c r="BK1" s="9"/>
-      <c r="BL1" s="9"/>
-      <c r="BM1" s="9"/>
-      <c r="BN1" s="9"/>
-      <c r="BO1" s="9"/>
-      <c r="BP1" s="9"/>
-      <c r="BQ1" s="9"/>
-      <c r="BR1" s="9"/>
-      <c r="BS1" s="9"/>
-      <c r="BT1" s="9"/>
-      <c r="BU1" s="9"/>
-      <c r="BV1" s="9"/>
-      <c r="BW1" s="9"/>
-      <c r="BX1" s="9"/>
-      <c r="BY1" s="9"/>
-      <c r="BZ1" s="9"/>
-      <c r="CA1" s="9"/>
-      <c r="CB1" s="9"/>
-      <c r="CC1" s="9"/>
-      <c r="CD1" s="9"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="20"/>
+      <c r="BK1" s="20"/>
+      <c r="BL1" s="20"/>
+      <c r="BM1" s="20"/>
+      <c r="BN1" s="20"/>
+      <c r="BO1" s="20"/>
+      <c r="BP1" s="20"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="20"/>
+      <c r="BU1" s="20"/>
+      <c r="BV1" s="20"/>
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="20"/>
     </row>
-    <row r="2" spans="1:82" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:81" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1587,10 +1568,10 @@
         <v>48</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>22</v>
@@ -1632,7 +1613,7 @@
         <v>45</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>51</v>
@@ -1647,7 +1628,7 @@
         <v>56</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>59</v>
@@ -1656,163 +1637,163 @@
         <v>61</v>
       </c>
       <c r="AA2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AB2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AD2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL2" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="AH2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN2" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AL2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AN2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AR2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT2" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="AQ2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AU2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="AT2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV2" s="5" t="s">
+      <c r="AX2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC2" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="AW2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY2" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AZ2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB2" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="BC2" s="5" t="s">
+      <c r="BD2" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="BD2" s="5" t="s">
+      <c r="BE2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="BE2" s="5" t="s">
+      <c r="BF2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="BF2" s="5" t="s">
+      <c r="BG2" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="BG2" s="5" t="s">
+      <c r="BH2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="BH2" s="5" t="s">
+      <c r="BI2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="BI2" s="5" t="s">
+      <c r="BJ2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="BJ2" s="5" t="s">
+      <c r="BK2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="BK2" s="5" t="s">
+      <c r="BL2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="BM2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="BN2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="BO2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP2" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="BL2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="BM2" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="BN2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO2" s="5" t="s">
+      <c r="BQ2" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="BP2" s="5" t="s">
+      <c r="BR2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="BS2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BT2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU2" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="BQ2" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="BR2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="BS2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BT2" s="5" t="s">
+      <c r="BV2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="BW2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BX2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BY2" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="BU2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="BV2" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="BW2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="BX2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BY2" s="5" t="s">
+      <c r="BZ2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="BZ2" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="CA2" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CB2" s="5" t="s">
         <v>141</v>
@@ -1820,331 +1801,323 @@
       <c r="CC2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="CD2" s="5" t="s">
-        <v>143</v>
-      </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8"/>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8"/>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
-      <c r="BH3" s="8"/>
-      <c r="BI3" s="8"/>
-      <c r="BJ3" s="8"/>
-      <c r="BK3" s="8"/>
-      <c r="BL3" s="8"/>
-      <c r="BM3" s="8"/>
-      <c r="BN3" s="8"/>
-      <c r="BO3" s="8"/>
-      <c r="BP3" s="8"/>
-      <c r="BQ3" s="8"/>
-      <c r="BR3" s="8"/>
-      <c r="BS3" s="8"/>
-      <c r="BT3" s="8"/>
-      <c r="BU3" s="8"/>
-      <c r="BV3" s="8"/>
-      <c r="BW3" s="8"/>
-      <c r="BX3" s="8"/>
-      <c r="BY3" s="8"/>
-      <c r="BZ3" s="8"/>
-      <c r="CA3" s="8"/>
-      <c r="CB3" s="8"/>
-      <c r="CC3" s="8"/>
-      <c r="CD3" s="8"/>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="19"/>
+      <c r="BB3" s="19"/>
+      <c r="BC3" s="19"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="19"/>
+      <c r="BH3" s="19"/>
+      <c r="BI3" s="19"/>
+      <c r="BJ3" s="19"/>
+      <c r="BK3" s="19"/>
+      <c r="BL3" s="19"/>
+      <c r="BM3" s="19"/>
+      <c r="BN3" s="19"/>
+      <c r="BO3" s="19"/>
+      <c r="BP3" s="19"/>
+      <c r="BQ3" s="19"/>
+      <c r="BR3" s="19"/>
+      <c r="BS3" s="19"/>
+      <c r="BT3" s="19"/>
+      <c r="BU3" s="19"/>
+      <c r="BV3" s="19"/>
+      <c r="BW3" s="19"/>
+      <c r="BX3" s="19"/>
+      <c r="BY3" s="19"/>
+      <c r="BZ3" s="19"/>
+      <c r="CA3" s="19"/>
+      <c r="CB3" s="19"/>
+      <c r="CC3" s="19"/>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="20"/>
-      <c r="AR4" s="20"/>
-      <c r="AS4" s="20"/>
-      <c r="AT4" s="20"/>
-      <c r="AU4" s="20"/>
-      <c r="AV4" s="20"/>
-      <c r="AW4" s="20"/>
-      <c r="AX4" s="20"/>
-      <c r="AY4" s="20"/>
-      <c r="AZ4" s="20"/>
-      <c r="BA4" s="20"/>
-      <c r="BB4" s="20"/>
-      <c r="BC4" s="20"/>
-      <c r="BD4" s="20"/>
-      <c r="BE4" s="20"/>
-      <c r="BF4" s="20"/>
-      <c r="BG4" s="20"/>
-      <c r="BH4" s="20"/>
-      <c r="BI4" s="20"/>
-      <c r="BJ4" s="20"/>
-      <c r="BK4" s="20"/>
-      <c r="BL4" s="20"/>
-      <c r="BM4" s="20"/>
-      <c r="BN4" s="21"/>
-      <c r="BO4" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="BP4" s="20"/>
-      <c r="BQ4" s="20"/>
-      <c r="BR4" s="20"/>
-      <c r="BS4" s="20"/>
-      <c r="BT4" s="20"/>
-      <c r="BU4" s="20"/>
-      <c r="BV4" s="20"/>
-      <c r="BW4" s="20"/>
-      <c r="BX4" s="20"/>
-      <c r="BY4" s="20"/>
-      <c r="BZ4" s="20"/>
-      <c r="CA4" s="20"/>
-      <c r="CB4" s="20"/>
-      <c r="CC4" s="20"/>
-      <c r="CD4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="13"/>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="13"/>
+      <c r="BG4" s="13"/>
+      <c r="BH4" s="13"/>
+      <c r="BI4" s="13"/>
+      <c r="BJ4" s="13"/>
+      <c r="BK4" s="13"/>
+      <c r="BL4" s="13"/>
+      <c r="BM4" s="13"/>
+      <c r="BN4" s="13"/>
+      <c r="BO4" s="14"/>
+      <c r="BP4" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="BQ4" s="13"/>
+      <c r="BR4" s="13"/>
+      <c r="BS4" s="13"/>
+      <c r="BT4" s="13"/>
+      <c r="BU4" s="13"/>
+      <c r="BV4" s="13"/>
+      <c r="BW4" s="13"/>
+      <c r="BX4" s="13"/>
+      <c r="BY4" s="13"/>
+      <c r="BZ4" s="13"/>
+      <c r="CA4" s="13"/>
+      <c r="CB4" s="13"/>
+      <c r="CC4" s="14"/>
     </row>
-    <row r="5" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10" t="s">
+    <row r="5" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="10" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="10" t="s">
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="10" t="s">
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="10" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="10" t="s">
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="10" t="s">
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="13" t="s">
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="15" t="s">
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AK5" s="13" t="s">
+      <c r="AL5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="10" t="s">
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="11"/>
-      <c r="AP5" s="10" t="s">
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AQ5" s="11"/>
-      <c r="AR5" s="11"/>
-      <c r="AS5" s="10" t="s">
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AT5" s="11"/>
-      <c r="AU5" s="11"/>
-      <c r="AV5" s="10" t="s">
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AW5" s="11"/>
-      <c r="AX5" s="11"/>
-      <c r="AY5" s="11"/>
-      <c r="AZ5" s="11"/>
-      <c r="BA5" s="10" t="s">
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="BB5" s="10" t="s">
+      <c r="BC5" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="BC5" s="11"/>
-      <c r="BD5" s="11"/>
-      <c r="BE5" s="11"/>
-      <c r="BF5" s="11"/>
-      <c r="BG5" s="11"/>
-      <c r="BH5" s="11"/>
-      <c r="BI5" s="11"/>
-      <c r="BJ5" s="11"/>
-      <c r="BK5" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="BL5" s="11"/>
-      <c r="BM5" s="22" t="s">
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9"/>
+      <c r="BK5" s="9"/>
+      <c r="BL5" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="BN5" s="23"/>
-      <c r="BO5" s="17" t="s">
-        <v>170</v>
-      </c>
+      <c r="BO5" s="18"/>
       <c r="BP5" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ5" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="BQ5" s="11"/>
-      <c r="BR5" s="11"/>
-      <c r="BS5" s="11"/>
-      <c r="BT5" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="BU5" s="11"/>
-      <c r="BV5" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BW5" s="11"/>
-      <c r="BX5" s="11"/>
-      <c r="BY5" s="11"/>
-      <c r="BZ5" s="10" t="s">
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="CA5" s="11"/>
-      <c r="CB5" s="11"/>
-      <c r="CC5" s="11"/>
-      <c r="CD5" s="11"/>
+      <c r="BZ5" s="9"/>
+      <c r="CA5" s="9"/>
+      <c r="CB5" s="9"/>
+      <c r="CC5" s="9"/>
     </row>
-    <row r="6" spans="1:82" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:81" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2211,170 +2184,167 @@
       <c r="Z6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AA6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AB6" s="6" t="s">
+      <c r="AC6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AE6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AE6" s="6" t="s">
+      <c r="AF6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AG6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AH6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AH6" s="6" t="s">
+      <c r="AI6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AI6" s="6" t="s">
+      <c r="AJ6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="2" t="s">
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AL6" s="6" t="s">
+      <c r="AM6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AM6" s="2" t="s">
+      <c r="AN6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AN6" s="6" t="s">
+      <c r="AO6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AO6" s="6" t="s">
+      <c r="AP6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AP6" s="2" t="s">
+      <c r="AQ6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AQ6" s="6" t="s">
+      <c r="AR6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AR6" s="6" t="s">
+      <c r="AS6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AS6" s="2" t="s">
+      <c r="AT6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AT6" s="6" t="s">
+      <c r="AU6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AU6" s="6" t="s">
+      <c r="AV6" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AV6" s="2" t="s">
+      <c r="AW6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AW6" s="6" t="s">
+      <c r="AX6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AX6" s="6" t="s">
+      <c r="AY6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AY6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AZ6" s="6" t="s">
+      <c r="AZ6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="BA6" s="11"/>
-      <c r="BB6" s="2" t="s">
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="BC6" s="6" t="s">
+      <c r="BD6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="BD6" s="6" t="s">
+      <c r="BE6" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="BE6" s="6" t="s">
+      <c r="BF6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="BF6" s="6" t="s">
+      <c r="BG6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="BG6" s="6" t="s">
+      <c r="BH6" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="BH6" s="6" t="s">
+      <c r="BI6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="BI6" s="6" t="s">
+      <c r="BJ6" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="BJ6" s="6" t="s">
+      <c r="BK6" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="BK6" s="2" t="s">
+      <c r="BL6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="BL6" s="6" t="s">
+      <c r="BM6" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="BM6" s="2" t="s">
+      <c r="BN6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="BN6" s="6" t="s">
+      <c r="BO6" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="BO6" s="18"/>
-      <c r="BP6" s="2" t="s">
+      <c r="BP6" s="11"/>
+      <c r="BQ6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="BQ6" s="6" t="s">
+      <c r="BR6" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="BR6" s="6" t="s">
+      <c r="BS6" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="BS6" s="6" t="s">
+      <c r="BT6" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="BT6" s="2" t="s">
+      <c r="BU6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="BU6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="BV6" s="2" t="s">
+      <c r="BV6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BW6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX6" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BY6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="BW6" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="BX6" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="BY6" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="BZ6" s="2" t="s">
-        <v>7</v>
+      <c r="BZ6" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="CA6" s="6" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="CB6" s="6" t="s">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="CC6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="CD6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
@@ -2456,41 +2426,39 @@
       <c r="CA7" s="7"/>
       <c r="CB7" s="7"/>
       <c r="CC7" s="7"/>
-      <c r="CD7" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="BZ5:CD5"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BO4:CD4"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="AJ4:BN4"/>
-    <mergeCell ref="BV5:BY5"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="AS5:AU5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AP5:AR5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BT5:BU5"/>
-    <mergeCell ref="A3:CD3"/>
-    <mergeCell ref="A1:CD1"/>
+  <mergeCells count="30">
+    <mergeCell ref="A3:CC3"/>
+    <mergeCell ref="A1:CC1"/>
     <mergeCell ref="E5:I5"/>
-    <mergeCell ref="D4:AI4"/>
+    <mergeCell ref="D4:AJ4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="N5:R5"/>
-    <mergeCell ref="BP5:BS5"/>
-    <mergeCell ref="AC5:AF5"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="BQ5:BT5"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AW5:BA5"/>
     <mergeCell ref="S5:W5"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BB5:BJ5"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="BL5:BM5"/>
+    <mergeCell ref="BC5:BK5"/>
+    <mergeCell ref="BY5:CC5"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BP4:CC4"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="AK4:BO4"/>
+    <mergeCell ref="BU5:BX5"/>
+    <mergeCell ref="BN5:BO5"/>
+    <mergeCell ref="AT5:AV5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="AQ5:AS5"/>
+    <mergeCell ref="BB5:BB6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
